--- a/class_0612/case.xlsx
+++ b/class_0612/case.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
+    <sheet name="case" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -408,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -524,4 +525,73 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>66</v>
+      </c>
+      <c r="G3">
+        <v>77</v>
+      </c>
+      <c r="H3">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/class_0612/case.xlsx
+++ b/class_0612/case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>case_id</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>post</t>
+  </si>
+  <si>
+    <t>actaul(实际返回值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result（结果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason（原因）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -78,15 +90,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,13 +112,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -407,118 +450,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -531,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
